--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,9 @@
   <c:lang val="en-US"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -131,6 +133,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -273,23 +276,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="567252296"/>
-        <c:axId val="567246936"/>
+        <c:axId val="564956040"/>
+        <c:axId val="564881288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="567252296"/>
+        <c:axId val="564956040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567246936"/>
+        <c:crossAx val="564881288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567246936"/>
+        <c:axId val="564881288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,13 +300,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567252296"/>
+        <c:crossAx val="564956040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -321,7 +325,9 @@
   <c:lang val="en-US"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -351,6 +357,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -433,23 +440,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564665320"/>
-        <c:axId val="565352296"/>
+        <c:axId val="564416104"/>
+        <c:axId val="564413240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564665320"/>
+        <c:axId val="564416104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565352296"/>
+        <c:crossAx val="564413240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565352296"/>
+        <c:axId val="564413240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,13 +464,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564665320"/>
+        <c:crossAx val="564416104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -481,7 +489,9 @@
   <c:lang val="en-US"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -510,6 +520,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -652,23 +663,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="565558792"/>
-        <c:axId val="456690808"/>
+        <c:axId val="565221048"/>
+        <c:axId val="565224024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565558792"/>
+        <c:axId val="565221048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456690808"/>
+        <c:crossAx val="565224024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456690808"/>
+        <c:axId val="565224024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,13 +687,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565558792"/>
+        <c:crossAx val="565221048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -726,6 +738,15 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>BPGT_TimeNrns!$A$2:$A$11</c:f>
@@ -805,23 +826,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="566482488"/>
-        <c:axId val="566034248"/>
+        <c:axId val="564996504"/>
+        <c:axId val="564999480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="566482488"/>
+        <c:axId val="564996504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566034248"/>
+        <c:crossAx val="564999480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566034248"/>
+        <c:axId val="564999480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +850,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566482488"/>
+        <c:crossAx val="564996504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -957,16 +978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1310,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -1966,6 +1987,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2345,7 +2367,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2361,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -2555,7 +2576,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15600" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
     <sheet name="RMS_TimeNrns" sheetId="2" r:id="rId2"/>
     <sheet name="BPGT_TimeIts" sheetId="3" r:id="rId3"/>
     <sheet name="BPGT_TimeNrns" sheetId="4" r:id="rId4"/>
+    <sheet name="Summary" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>user</t>
   </si>
@@ -50,11 +52,37 @@
     <t>real</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMS minimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neurons in middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMS Minimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-propagation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -276,23 +304,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564956040"/>
-        <c:axId val="564881288"/>
+        <c:axId val="564074568"/>
+        <c:axId val="564069528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564956040"/>
+        <c:axId val="564074568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564881288"/>
+        <c:crossAx val="564069528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564881288"/>
+        <c:axId val="564069528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,7 +328,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564956040"/>
+        <c:crossAx val="564074568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -325,9 +353,7 @@
   <c:lang val="en-US"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -357,7 +383,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -440,23 +465,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564416104"/>
-        <c:axId val="564413240"/>
+        <c:axId val="564249736"/>
+        <c:axId val="564252600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564416104"/>
+        <c:axId val="564249736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564413240"/>
+        <c:crossAx val="564252600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564413240"/>
+        <c:axId val="564252600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,14 +489,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564416104"/>
+        <c:crossAx val="564249736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -663,23 +687,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="565221048"/>
-        <c:axId val="565224024"/>
+        <c:axId val="564293384"/>
+        <c:axId val="564296280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565221048"/>
+        <c:axId val="564293384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565224024"/>
+        <c:crossAx val="564296280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565224024"/>
+        <c:axId val="564296280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +711,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565221048"/>
+        <c:crossAx val="564293384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -826,23 +850,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564996504"/>
-        <c:axId val="564999480"/>
+        <c:axId val="564336280"/>
+        <c:axId val="564339176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564996504"/>
+        <c:axId val="564336280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564999480"/>
+        <c:crossAx val="564339176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564999480"/>
+        <c:axId val="564339176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,13 +874,733 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564996504"/>
+        <c:crossAx val="564336280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMS minimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0.0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0108170361177679"/>
+                  <c:y val="0.031885932141694"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>322.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>392.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Back-propagation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.179725572794847"/>
+                  <c:y val="-0.0111354330708661"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.876915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.816314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.878549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.895184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.783318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.756306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.635728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.522075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.437014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.331637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="564392888"/>
+        <c:axId val="564395832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="564392888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="564395832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="564395832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="564392888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMS Minimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.000462342553801225"/>
+                  <c:y val="-0.0227944243456054"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$36:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$B$36:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Back-propagation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.198844416544986"/>
+                  <c:y val="0.0406805703341137"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$36:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$36:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.89715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.770243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.655846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.545985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.418027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.317078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.221733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.110214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.968147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.871365000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.752444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.633634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.507105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.397551</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.304286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.187443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.017537</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.989446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.868754</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.734006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="565035592"/>
+        <c:axId val="565033560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="565035592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="565033560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="565033560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="565035592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1001,6 +1745,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1331,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1791,15 +2600,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1813,10 +2622,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1832,8 +2641,11 @@
       <c r="E3">
         <v>15.999110999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>4.8769150000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1849,8 +2661,11 @@
       <c r="E4">
         <v>41.338056000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>6.8163140000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1866,8 +2681,11 @@
       <c r="E5">
         <v>77.575819999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>8.8785489999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1883,8 +2701,11 @@
       <c r="E6">
         <v>126.335757</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>10.895184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1900,8 +2721,11 @@
       <c r="E7">
         <v>185.91172399999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>12.783318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1917,8 +2741,11 @@
       <c r="E8">
         <v>253.75511800000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>14.756306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1934,8 +2761,11 @@
       <c r="E9">
         <v>335.21262999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>16.635728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1951,8 +2781,11 @@
       <c r="E10">
         <v>425.16458899999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>18.522075000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1968,8 +2801,11 @@
       <c r="E11">
         <v>528.30637200000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>20.437014000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1984,6 +2820,9 @@
       </c>
       <c r="E12">
         <v>641.08490800000004</v>
+      </c>
+      <c r="F12">
+        <v>22.331637000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2843,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2367,8 +3206,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2383,7 +3224,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2585,4 +3426,402 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11.62</v>
+      </c>
+      <c r="C2">
+        <v>4.8769150000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28.18</v>
+      </c>
+      <c r="C3">
+        <v>6.8163140000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>51.54</v>
+      </c>
+      <c r="C4">
+        <v>8.8785489999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C5">
+        <v>10.895184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>116.49</v>
+      </c>
+      <c r="C6">
+        <v>12.783318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>158.6</v>
+      </c>
+      <c r="C7">
+        <v>14.756306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>207.21</v>
+      </c>
+      <c r="C8">
+        <v>16.635728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>261.14</v>
+      </c>
+      <c r="C9">
+        <v>18.522075000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>322.32</v>
+      </c>
+      <c r="C10">
+        <v>20.437014000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>392.2</v>
+      </c>
+      <c r="C11">
+        <v>22.331637000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C36">
+        <v>0.89715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>10.27</v>
+      </c>
+      <c r="C37">
+        <v>1.770243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>15.4</v>
+      </c>
+      <c r="C38">
+        <v>2.6558459999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39">
+        <v>20.59</v>
+      </c>
+      <c r="C39">
+        <v>3.5459849999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>500</v>
+      </c>
+      <c r="B40">
+        <v>25.72</v>
+      </c>
+      <c r="C40">
+        <v>4.4180270000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>600</v>
+      </c>
+      <c r="B41">
+        <v>30.9</v>
+      </c>
+      <c r="C41">
+        <v>5.3170780000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>700</v>
+      </c>
+      <c r="B42">
+        <v>36.03</v>
+      </c>
+      <c r="C42">
+        <v>6.2217330000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>800</v>
+      </c>
+      <c r="B43">
+        <v>41.12</v>
+      </c>
+      <c r="C43">
+        <v>7.110214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>900</v>
+      </c>
+      <c r="B44">
+        <v>46.37</v>
+      </c>
+      <c r="C44">
+        <v>7.9681470000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <v>51.5</v>
+      </c>
+      <c r="C45">
+        <v>8.8713650000000008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1100</v>
+      </c>
+      <c r="B46">
+        <v>56.61</v>
+      </c>
+      <c r="C46">
+        <v>9.7524440000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1200</v>
+      </c>
+      <c r="B47">
+        <v>61.66</v>
+      </c>
+      <c r="C47">
+        <v>10.633634000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1300</v>
+      </c>
+      <c r="B48">
+        <v>66.84</v>
+      </c>
+      <c r="C48">
+        <v>11.507104999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1400</v>
+      </c>
+      <c r="B49">
+        <v>72.12</v>
+      </c>
+      <c r="C49">
+        <v>12.397551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1500</v>
+      </c>
+      <c r="B50">
+        <v>77.27</v>
+      </c>
+      <c r="C50">
+        <v>13.304285999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1600</v>
+      </c>
+      <c r="B51">
+        <v>82.75</v>
+      </c>
+      <c r="C51">
+        <v>14.187443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1700</v>
+      </c>
+      <c r="B52">
+        <v>87.64</v>
+      </c>
+      <c r="C52">
+        <v>15.017537000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1800</v>
+      </c>
+      <c r="B53">
+        <v>92.93</v>
+      </c>
+      <c r="C53">
+        <v>15.989445999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>1900</v>
+      </c>
+      <c r="B54">
+        <v>98.11</v>
+      </c>
+      <c r="C54">
+        <v>16.868753999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2000</v>
+      </c>
+      <c r="B55">
+        <v>102.99</v>
+      </c>
+      <c r="C55">
+        <v>17.734006000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15600" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Summary" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -77,12 +77,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -128,11 +122,8 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -161,7 +152,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -172,64 +162,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,43 +231,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.707665</c:v>
+                  <c:v>7.7076650000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.571129</c:v>
+                  <c:v>15.571129000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.335438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.042039</c:v>
+                  <c:v>31.042038999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.872001</c:v>
+                  <c:v>38.872000999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.706636</c:v>
+                  <c:v>46.706636000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54.716099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.357607</c:v>
+                  <c:v>62.357607000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.041305</c:v>
+                  <c:v>70.041304999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.776831</c:v>
+                  <c:v>77.776831000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>85.837491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.40933099999999</c:v>
+                  <c:v>93.409330999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.266112</c:v>
+                  <c:v>101.26611200000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>109.101752</c:v>
@@ -289,38 +279,38 @@
                   <c:v>124.77552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.55173</c:v>
+                  <c:v>133.55172999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.271723</c:v>
+                  <c:v>140.27172300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>148.001499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.334602</c:v>
+                  <c:v>155.33460199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564074568"/>
-        <c:axId val="564069528"/>
+        <c:axId val="74850688"/>
+        <c:axId val="74852224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564074568"/>
+        <c:axId val="74850688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564069528"/>
+        <c:crossAx val="74852224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564069528"/>
+        <c:axId val="74852224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,20 +318,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564074568"/>
+        <c:crossAx val="74850688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -351,7 +340,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -393,34 +381,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,56 +420,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.999111</c:v>
+                  <c:v>15.999110999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.338056</c:v>
+                  <c:v>41.338056000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.57581999999999</c:v>
+                  <c:v>77.575819999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126.335757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.911724</c:v>
+                  <c:v>185.91172399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.755118</c:v>
+                  <c:v>253.75511800000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335.21263</c:v>
+                  <c:v>335.21262999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.164589</c:v>
+                  <c:v>425.16458899999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>528.306372</c:v>
+                  <c:v>528.30637200000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.084908</c:v>
+                  <c:v>641.08490800000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564249736"/>
-        <c:axId val="564252600"/>
+        <c:axId val="74906240"/>
+        <c:axId val="74719616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564249736"/>
+        <c:axId val="74906240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564252600"/>
+        <c:crossAx val="74719616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564252600"/>
+        <c:axId val="74719616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +477,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564249736"/>
+        <c:crossAx val="74906240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -501,7 +489,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -511,11 +499,8 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -544,7 +529,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -555,64 +539,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,80 +614,80 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.655846</c:v>
+                  <c:v>2.6558459999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.545985</c:v>
+                  <c:v>3.5459849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.418027</c:v>
+                  <c:v>4.4180270000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.317078</c:v>
+                  <c:v>5.3170780000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.221733</c:v>
+                  <c:v>6.2217330000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.968147</c:v>
+                  <c:v>7.9681470000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.871365000000001</c:v>
+                  <c:v>8.8713650000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.752444</c:v>
+                  <c:v>9.7524440000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634</c:v>
+                  <c:v>10.633634000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507105</c:v>
+                  <c:v>11.507104999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304286</c:v>
+                  <c:v>13.304285999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537</c:v>
+                  <c:v>15.017537000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989446</c:v>
+                  <c:v>15.989445999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868754</c:v>
+                  <c:v>16.868753999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006</c:v>
+                  <c:v>17.734006000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564293384"/>
-        <c:axId val="564296280"/>
+        <c:axId val="78128256"/>
+        <c:axId val="78129792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564293384"/>
+        <c:axId val="78128256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564296280"/>
+        <c:crossAx val="78129792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564296280"/>
+        <c:axId val="78129792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,20 +695,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564293384"/>
+        <c:crossAx val="78128256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -734,11 +717,8 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -767,7 +747,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -778,34 +757,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,13 +796,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.876915</c:v>
+                  <c:v>4.8769150000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.816314</c:v>
+                  <c:v>6.8163140000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.878549</c:v>
+                  <c:v>8.8785489999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -838,35 +817,35 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075</c:v>
+                  <c:v>18.522075000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014</c:v>
+                  <c:v>20.437014000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637</c:v>
+                  <c:v>22.331637000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564336280"/>
-        <c:axId val="564339176"/>
+        <c:axId val="78155136"/>
+        <c:axId val="78177408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564336280"/>
+        <c:axId val="78155136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564339176"/>
+        <c:crossAx val="78177408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564339176"/>
+        <c:axId val="78177408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,20 +853,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564336280"/>
+        <c:crossAx val="78155136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -897,8 +875,30 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Total neurons in middle layer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -926,20 +926,19 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:intercept val="0.0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0108170361177679"/>
-                  <c:y val="0.031885932141694"/>
+                  <c:x val="0.36473780507726988"/>
+                  <c:y val="2.8370481149810507E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -952,34 +951,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +999,7 @@
                   <c:v>51.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.6</c:v>
+                  <c:v>80.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>116.49</c:v>
@@ -1030,6 +1029,426 @@
           <c:tx>
             <c:strRef>
               <c:f>Summary!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Back-propagation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.30182441925049824"/>
+                  <c:y val="7.1576064433593401E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8769150000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8163140000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8785489999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.895184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.783318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.756306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.635728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.522075000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.437014000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.331637000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="78118272"/>
+        <c:axId val="78189696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78118272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total neurons in middle layer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78189696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78189696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78118272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of iterations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMS Minimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21713856307380663"/>
+                  <c:y val="-2.2257444601282293E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$36:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$B$36:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1057,8 +1476,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.179725572794847"/>
-                  <c:y val="-0.0111354330708661"/>
+                  <c:x val="0.22128794066716764"/>
+                  <c:y val="4.6940018026904305E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1066,108 +1485,212 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$A$2:$A$11</c:f>
+              <c:f>Summary!$A$36:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$2:$C$11</c:f>
+              <c:f>Summary!$C$36:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.876915</c:v>
+                  <c:v>0.89715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.816314</c:v>
+                  <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.878549</c:v>
+                  <c:v>2.6558459999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.895184</c:v>
+                  <c:v>3.5459849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.783318</c:v>
+                  <c:v>4.4180270000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.756306</c:v>
+                  <c:v>5.3170780000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.635728</c:v>
+                  <c:v>6.2217330000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075</c:v>
+                  <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014</c:v>
+                  <c:v>7.9681470000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637</c:v>
+                  <c:v>8.8713650000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7524440000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.633634000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.507104999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.397551</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.304285999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.187443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.017537000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.989445999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.868753999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.734006000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564392888"/>
-        <c:axId val="564395832"/>
+        <c:dLbls/>
+        <c:axId val="78232960"/>
+        <c:axId val="78247040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564392888"/>
+        <c:axId val="78232960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564395832"/>
+        <c:crossAx val="78247040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564395832"/>
+        <c:axId val="78247040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564392888"/>
+        <c:crossAx val="78232960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1188,426 +1711,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RMS Minimization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.000462342553801225"/>
-                  <c:y val="-0.0227944243456054"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$36:$A$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$B$36:$B$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46.37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56.61</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61.66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>66.84</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>77.27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>87.64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>92.93</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>98.11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>102.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$C$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Back-propagation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.198844416544986"/>
-                  <c:y val="0.0406805703341137"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$36:$A$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$C$36:$C$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.89715</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.770243</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.655846</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.545985</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.418027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.317078</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.221733</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.110214</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.968147</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.871365000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.752444</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.633634</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.507105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.397551</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.304286</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.187443</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.017537</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.989446</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.868754</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.734006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="565035592"/>
-        <c:axId val="565033560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="565035592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565033560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="565033560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565035592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1763,10 +1867,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1787,16 +1891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2137,14 +2241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2599,14 +2703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2826,7 +2930,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2839,14 +2942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3206,7 +3309,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3220,14 +3322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3429,14 +3531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -3794,7 +3896,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3808,16 +3909,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>

--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Summary" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -77,6 +77,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -122,6 +128,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -162,64 +169,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -231,43 +238,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.7076650000000004</c:v>
+                  <c:v>7.707665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.571129000000001</c:v>
+                  <c:v>15.571129</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.335438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.042038999999999</c:v>
+                  <c:v>31.042039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.872000999999997</c:v>
+                  <c:v>38.872001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.706636000000003</c:v>
+                  <c:v>46.706636</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54.716099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.357607000000002</c:v>
+                  <c:v>62.357607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.041304999999994</c:v>
+                  <c:v>70.041305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.776831000000001</c:v>
+                  <c:v>77.776831</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>85.837491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.409330999999995</c:v>
+                  <c:v>93.40933099999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.26611200000001</c:v>
+                  <c:v>101.266112</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>109.101752</c:v>
@@ -279,38 +286,38 @@
                   <c:v>124.77552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.55172999999999</c:v>
+                  <c:v>133.55173</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.27172300000001</c:v>
+                  <c:v>140.271723</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>148.001499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.33460199999999</c:v>
+                  <c:v>155.334602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74850688"/>
-        <c:axId val="74852224"/>
+        <c:axId val="455355752"/>
+        <c:axId val="455353896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74850688"/>
+        <c:axId val="455355752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74852224"/>
+        <c:crossAx val="455353896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74852224"/>
+        <c:axId val="455353896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,7 +325,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74850688"/>
+        <c:crossAx val="455355752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -330,7 +337,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -340,6 +347,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -381,34 +389,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,56 +428,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.999110999999999</c:v>
+                  <c:v>15.999111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.338056000000002</c:v>
+                  <c:v>41.338056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.575819999999993</c:v>
+                  <c:v>77.57581999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126.335757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.91172399999999</c:v>
+                  <c:v>185.911724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.75511800000001</c:v>
+                  <c:v>253.755118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335.21262999999999</c:v>
+                  <c:v>335.21263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.16458899999998</c:v>
+                  <c:v>425.164589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>528.30637200000001</c:v>
+                  <c:v>528.306372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.08490800000004</c:v>
+                  <c:v>641.084908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74906240"/>
-        <c:axId val="74719616"/>
+        <c:axId val="566601832"/>
+        <c:axId val="448031224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74906240"/>
+        <c:axId val="566601832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74719616"/>
+        <c:crossAx val="448031224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74719616"/>
+        <c:axId val="448031224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +485,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74906240"/>
+        <c:crossAx val="566601832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -489,7 +497,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -499,6 +507,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -539,64 +548,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,80 +623,80 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6558459999999999</c:v>
+                  <c:v>2.655846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5459849999999999</c:v>
+                  <c:v>3.545985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4180270000000004</c:v>
+                  <c:v>4.418027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3170780000000004</c:v>
+                  <c:v>5.317078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2217330000000004</c:v>
+                  <c:v>6.221733</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9681470000000001</c:v>
+                  <c:v>7.968147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8713650000000008</c:v>
+                  <c:v>8.871365000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7524440000000006</c:v>
+                  <c:v>9.752444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634000000001</c:v>
+                  <c:v>10.633634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507104999999999</c:v>
+                  <c:v>11.507105</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304285999999999</c:v>
+                  <c:v>13.304286</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537000000001</c:v>
+                  <c:v>15.017537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989445999999999</c:v>
+                  <c:v>15.989446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868753999999999</c:v>
+                  <c:v>16.868754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006000000001</c:v>
+                  <c:v>17.734006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78128256"/>
-        <c:axId val="78129792"/>
+        <c:axId val="565720760"/>
+        <c:axId val="565723736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78128256"/>
+        <c:axId val="565720760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78129792"/>
+        <c:crossAx val="565723736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78129792"/>
+        <c:axId val="565723736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +704,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78128256"/>
+        <c:crossAx val="565720760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -707,7 +716,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -717,6 +726,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -757,34 +767,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,13 +806,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8769150000000003</c:v>
+                  <c:v>4.876915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8163140000000002</c:v>
+                  <c:v>6.816314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8785489999999996</c:v>
+                  <c:v>8.878549</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -817,35 +827,35 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075000000001</c:v>
+                  <c:v>18.522075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014000000001</c:v>
+                  <c:v>20.437014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637000000001</c:v>
+                  <c:v>22.331637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78155136"/>
-        <c:axId val="78177408"/>
+        <c:axId val="564037192"/>
+        <c:axId val="564040168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78155136"/>
+        <c:axId val="564037192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78177408"/>
+        <c:crossAx val="564040168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78177408"/>
+        <c:axId val="564040168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +863,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78155136"/>
+        <c:crossAx val="564037192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -865,7 +875,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -875,6 +885,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -937,8 +948,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.36473780507726988"/>
-                  <c:y val="2.8370481149810507E-2"/>
+                  <c:x val="0.36473780507727"/>
+                  <c:y val="0.0283704811498105"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -951,34 +962,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1010,7 @@
                   <c:v>51.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>80.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>116.49</c:v>
@@ -1056,8 +1067,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.30182441925049824"/>
-                  <c:y val="7.1576064433593401E-3"/>
+                  <c:x val="0.301824419250498"/>
+                  <c:y val="0.00715760644335934"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1070,34 +1081,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,13 +1120,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8769150000000003</c:v>
+                  <c:v>4.876915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8163140000000002</c:v>
+                  <c:v>6.816314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8785489999999996</c:v>
+                  <c:v>8.878549</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -1130,24 +1141,23 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075000000001</c:v>
+                  <c:v>18.522075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014000000001</c:v>
+                  <c:v>20.437014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637000000001</c:v>
+                  <c:v>22.331637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="78118272"/>
-        <c:axId val="78189696"/>
+        <c:axId val="531484776"/>
+        <c:axId val="567142024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78118272"/>
+        <c:axId val="531484776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,12 +1183,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78189696"/>
+        <c:crossAx val="567142024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78189696"/>
+        <c:axId val="567142024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1215,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78118272"/>
+        <c:crossAx val="531484776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,7 +1236,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1236,6 +1246,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1297,8 +1308,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21713856307380663"/>
-                  <c:y val="-2.2257444601282293E-2"/>
+                  <c:x val="0.217138563073807"/>
+                  <c:y val="-0.0222574446012823"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1311,64 +1322,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,7 +1391,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.27</c:v>
@@ -1476,8 +1487,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.22128794066716764"/>
-                  <c:y val="4.6940018026904305E-2"/>
+                  <c:x val="0.221287940667168"/>
+                  <c:y val="0.0469400180269043"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1490,64 +1501,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,69 +1576,68 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6558459999999999</c:v>
+                  <c:v>2.655846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5459849999999999</c:v>
+                  <c:v>3.545985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4180270000000004</c:v>
+                  <c:v>4.418027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3170780000000004</c:v>
+                  <c:v>5.317078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2217330000000004</c:v>
+                  <c:v>6.221733</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9681470000000001</c:v>
+                  <c:v>7.968147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8713650000000008</c:v>
+                  <c:v>8.871365000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7524440000000006</c:v>
+                  <c:v>9.752444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634000000001</c:v>
+                  <c:v>10.633634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507104999999999</c:v>
+                  <c:v>11.507105</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304285999999999</c:v>
+                  <c:v>13.304286</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537000000001</c:v>
+                  <c:v>15.017537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989445999999999</c:v>
+                  <c:v>15.989446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868753999999999</c:v>
+                  <c:v>16.868754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006000000001</c:v>
+                  <c:v>17.734006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="78232960"/>
-        <c:axId val="78247040"/>
+        <c:axId val="447770840"/>
+        <c:axId val="566538248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78232960"/>
+        <c:axId val="447770840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,12 +1663,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78247040"/>
+        <c:crossAx val="566538248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78247040"/>
+        <c:axId val="566538248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1700,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78232960"/>
+        <c:crossAx val="447770840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1711,7 +1721,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1862,15 +1872,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>910167</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>325967</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1891,16 +1901,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2241,14 +2251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2703,14 +2713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2942,14 +2952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3309,9 +3319,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3322,14 +3332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3516,6 +3526,384 @@
       </c>
       <c r="E11">
         <v>22.331637000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11.62</v>
+      </c>
+      <c r="C2">
+        <v>4.8769150000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28.18</v>
+      </c>
+      <c r="C3">
+        <v>6.8163140000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>51.54</v>
+      </c>
+      <c r="C4">
+        <v>8.8785489999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C5">
+        <v>10.895184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>116.49</v>
+      </c>
+      <c r="C6">
+        <v>12.783318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>158.6</v>
+      </c>
+      <c r="C7">
+        <v>14.756306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>207.21</v>
+      </c>
+      <c r="C8">
+        <v>16.635728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>261.14</v>
+      </c>
+      <c r="C9">
+        <v>18.522075000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>322.32</v>
+      </c>
+      <c r="C10">
+        <v>20.437014000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>392.2</v>
+      </c>
+      <c r="C11">
+        <v>22.331637000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C36">
+        <v>0.89715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>10.27</v>
+      </c>
+      <c r="C37">
+        <v>1.770243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>15.4</v>
+      </c>
+      <c r="C38">
+        <v>2.6558459999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39">
+        <v>20.59</v>
+      </c>
+      <c r="C39">
+        <v>3.5459849999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>500</v>
+      </c>
+      <c r="B40">
+        <v>25.72</v>
+      </c>
+      <c r="C40">
+        <v>4.4180270000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>600</v>
+      </c>
+      <c r="B41">
+        <v>30.9</v>
+      </c>
+      <c r="C41">
+        <v>5.3170780000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>700</v>
+      </c>
+      <c r="B42">
+        <v>36.03</v>
+      </c>
+      <c r="C42">
+        <v>6.2217330000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>800</v>
+      </c>
+      <c r="B43">
+        <v>41.12</v>
+      </c>
+      <c r="C43">
+        <v>7.110214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>900</v>
+      </c>
+      <c r="B44">
+        <v>46.37</v>
+      </c>
+      <c r="C44">
+        <v>7.9681470000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <v>51.5</v>
+      </c>
+      <c r="C45">
+        <v>8.8713650000000008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1100</v>
+      </c>
+      <c r="B46">
+        <v>56.61</v>
+      </c>
+      <c r="C46">
+        <v>9.7524440000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1200</v>
+      </c>
+      <c r="B47">
+        <v>61.66</v>
+      </c>
+      <c r="C47">
+        <v>10.633634000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1300</v>
+      </c>
+      <c r="B48">
+        <v>66.84</v>
+      </c>
+      <c r="C48">
+        <v>11.507104999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1400</v>
+      </c>
+      <c r="B49">
+        <v>72.12</v>
+      </c>
+      <c r="C49">
+        <v>12.397551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1500</v>
+      </c>
+      <c r="B50">
+        <v>77.27</v>
+      </c>
+      <c r="C50">
+        <v>13.304285999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1600</v>
+      </c>
+      <c r="B51">
+        <v>82.75</v>
+      </c>
+      <c r="C51">
+        <v>14.187443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1700</v>
+      </c>
+      <c r="B52">
+        <v>87.64</v>
+      </c>
+      <c r="C52">
+        <v>15.017537000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1800</v>
+      </c>
+      <c r="B53">
+        <v>92.93</v>
+      </c>
+      <c r="C53">
+        <v>15.989445999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>1900</v>
+      </c>
+      <c r="B54">
+        <v>98.11</v>
+      </c>
+      <c r="C54">
+        <v>16.868753999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2000</v>
+      </c>
+      <c r="B55">
+        <v>102.99</v>
+      </c>
+      <c r="C55">
+        <v>17.734006000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3530,395 +3918,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>11.62</v>
-      </c>
-      <c r="C2">
-        <v>4.8769150000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>28.18</v>
-      </c>
-      <c r="C3">
-        <v>6.8163140000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>51.54</v>
-      </c>
-      <c r="C4">
-        <v>8.8785489999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="C5">
-        <v>10.895184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>116.49</v>
-      </c>
-      <c r="C6">
-        <v>12.783318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>158.6</v>
-      </c>
-      <c r="C7">
-        <v>14.756306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>207.21</v>
-      </c>
-      <c r="C8">
-        <v>16.635728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>261.14</v>
-      </c>
-      <c r="C9">
-        <v>18.522075000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>322.32</v>
-      </c>
-      <c r="C10">
-        <v>20.437014000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>392.2</v>
-      </c>
-      <c r="C11">
-        <v>22.331637000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>100</v>
-      </c>
-      <c r="B36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C36">
-        <v>0.89715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>200</v>
-      </c>
-      <c r="B37">
-        <v>10.27</v>
-      </c>
-      <c r="C37">
-        <v>1.770243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>300</v>
-      </c>
-      <c r="B38">
-        <v>15.4</v>
-      </c>
-      <c r="C38">
-        <v>2.6558459999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>400</v>
-      </c>
-      <c r="B39">
-        <v>20.59</v>
-      </c>
-      <c r="C39">
-        <v>3.5459849999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>500</v>
-      </c>
-      <c r="B40">
-        <v>25.72</v>
-      </c>
-      <c r="C40">
-        <v>4.4180270000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>600</v>
-      </c>
-      <c r="B41">
-        <v>30.9</v>
-      </c>
-      <c r="C41">
-        <v>5.3170780000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>700</v>
-      </c>
-      <c r="B42">
-        <v>36.03</v>
-      </c>
-      <c r="C42">
-        <v>6.2217330000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>800</v>
-      </c>
-      <c r="B43">
-        <v>41.12</v>
-      </c>
-      <c r="C43">
-        <v>7.110214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>900</v>
-      </c>
-      <c r="B44">
-        <v>46.37</v>
-      </c>
-      <c r="C44">
-        <v>7.9681470000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>1000</v>
-      </c>
-      <c r="B45">
-        <v>51.5</v>
-      </c>
-      <c r="C45">
-        <v>8.8713650000000008</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>1100</v>
-      </c>
-      <c r="B46">
-        <v>56.61</v>
-      </c>
-      <c r="C46">
-        <v>9.7524440000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>1200</v>
-      </c>
-      <c r="B47">
-        <v>61.66</v>
-      </c>
-      <c r="C47">
-        <v>10.633634000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>1300</v>
-      </c>
-      <c r="B48">
-        <v>66.84</v>
-      </c>
-      <c r="C48">
-        <v>11.507104999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>1400</v>
-      </c>
-      <c r="B49">
-        <v>72.12</v>
-      </c>
-      <c r="C49">
-        <v>12.397551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>1500</v>
-      </c>
-      <c r="B50">
-        <v>77.27</v>
-      </c>
-      <c r="C50">
-        <v>13.304285999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>1600</v>
-      </c>
-      <c r="B51">
-        <v>82.75</v>
-      </c>
-      <c r="C51">
-        <v>14.187443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>1700</v>
-      </c>
-      <c r="B52">
-        <v>87.64</v>
-      </c>
-      <c r="C52">
-        <v>15.017537000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>1800</v>
-      </c>
-      <c r="B53">
-        <v>92.93</v>
-      </c>
-      <c r="C53">
-        <v>15.989445999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>1900</v>
-      </c>
-      <c r="B54">
-        <v>98.11</v>
-      </c>
-      <c r="C54">
-        <v>16.868753999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>2000</v>
-      </c>
-      <c r="B55">
-        <v>102.99</v>
-      </c>
-      <c r="C55">
-        <v>17.734006000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>

--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Summary" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -77,12 +77,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -128,7 +122,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -169,64 +162,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -238,43 +231,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.707665</c:v>
+                  <c:v>7.7076650000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.571129</c:v>
+                  <c:v>15.571129000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.335438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.042039</c:v>
+                  <c:v>31.042038999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.872001</c:v>
+                  <c:v>38.872000999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.706636</c:v>
+                  <c:v>46.706636000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54.716099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.357607</c:v>
+                  <c:v>62.357607000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.041305</c:v>
+                  <c:v>70.041304999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.776831</c:v>
+                  <c:v>77.776831000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>85.837491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.40933099999999</c:v>
+                  <c:v>93.409330999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.266112</c:v>
+                  <c:v>101.26611200000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>109.101752</c:v>
@@ -286,38 +279,38 @@
                   <c:v>124.77552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.55173</c:v>
+                  <c:v>133.55172999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.271723</c:v>
+                  <c:v>140.27172300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>148.001499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.334602</c:v>
+                  <c:v>155.33460199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="455355752"/>
-        <c:axId val="455353896"/>
+        <c:axId val="49762304"/>
+        <c:axId val="49763840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455355752"/>
+        <c:axId val="49762304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455353896"/>
+        <c:crossAx val="49763840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455353896"/>
+        <c:axId val="49763840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,7 +318,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455355752"/>
+        <c:crossAx val="49762304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -337,7 +330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -347,7 +340,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -389,34 +381,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,56 +420,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.999111</c:v>
+                  <c:v>15.999110999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.338056</c:v>
+                  <c:v>41.338056000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.57581999999999</c:v>
+                  <c:v>77.575819999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126.335757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.911724</c:v>
+                  <c:v>185.91172399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.755118</c:v>
+                  <c:v>253.75511800000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335.21263</c:v>
+                  <c:v>335.21262999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.164589</c:v>
+                  <c:v>425.16458899999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>528.306372</c:v>
+                  <c:v>528.30637200000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.084908</c:v>
+                  <c:v>641.08490800000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="566601832"/>
-        <c:axId val="448031224"/>
+        <c:axId val="49846528"/>
+        <c:axId val="49856512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="566601832"/>
+        <c:axId val="49846528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448031224"/>
+        <c:crossAx val="49856512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448031224"/>
+        <c:axId val="49856512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +477,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566601832"/>
+        <c:crossAx val="49846528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -497,7 +489,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -507,7 +499,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -548,64 +539,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,80 +614,80 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.655846</c:v>
+                  <c:v>2.6558459999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.545985</c:v>
+                  <c:v>3.5459849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.418027</c:v>
+                  <c:v>4.4180270000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.317078</c:v>
+                  <c:v>5.3170780000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.221733</c:v>
+                  <c:v>6.2217330000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.968147</c:v>
+                  <c:v>7.9681470000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.871365000000001</c:v>
+                  <c:v>8.8713650000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.752444</c:v>
+                  <c:v>9.7524440000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634</c:v>
+                  <c:v>10.633634000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507105</c:v>
+                  <c:v>11.507104999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304286</c:v>
+                  <c:v>13.304285999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537</c:v>
+                  <c:v>15.017537000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989446</c:v>
+                  <c:v>15.989445999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868754</c:v>
+                  <c:v>16.868753999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006</c:v>
+                  <c:v>17.734006000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="565720760"/>
-        <c:axId val="565723736"/>
+        <c:axId val="49881856"/>
+        <c:axId val="49883392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565720760"/>
+        <c:axId val="49881856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565723736"/>
+        <c:crossAx val="49883392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565723736"/>
+        <c:axId val="49883392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +695,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565720760"/>
+        <c:crossAx val="49881856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -716,7 +707,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -726,7 +717,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -767,34 +757,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,13 +796,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.876915</c:v>
+                  <c:v>4.8769150000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.816314</c:v>
+                  <c:v>6.8163140000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.878549</c:v>
+                  <c:v>8.8785489999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -827,35 +817,35 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075</c:v>
+                  <c:v>18.522075000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014</c:v>
+                  <c:v>20.437014000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637</c:v>
+                  <c:v>22.331637000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564037192"/>
-        <c:axId val="564040168"/>
+        <c:axId val="49986560"/>
+        <c:axId val="49988352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564037192"/>
+        <c:axId val="49986560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564040168"/>
+        <c:crossAx val="49988352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564040168"/>
+        <c:axId val="49988352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +853,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564037192"/>
+        <c:crossAx val="49986560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -875,7 +865,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -885,7 +875,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -948,8 +937,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.36473780507727"/>
-                  <c:y val="0.0283704811498105"/>
+                  <c:x val="0.36473780507727005"/>
+                  <c:y val="2.8370481149810504E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -962,34 +951,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,7 +999,7 @@
                   <c:v>51.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.6</c:v>
+                  <c:v>80.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>116.49</c:v>
@@ -1067,8 +1056,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.301824419250498"/>
-                  <c:y val="0.00715760644335934"/>
+                  <c:x val="0.30182441925049813"/>
+                  <c:y val="7.1576064433593409E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1081,34 +1070,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,13 +1109,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.876915</c:v>
+                  <c:v>4.8769150000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.816314</c:v>
+                  <c:v>6.8163140000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.878549</c:v>
+                  <c:v>8.8785489999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -1141,23 +1130,23 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075</c:v>
+                  <c:v>18.522075000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014</c:v>
+                  <c:v>20.437014000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637</c:v>
+                  <c:v>22.331637000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="531484776"/>
-        <c:axId val="567142024"/>
+        <c:axId val="63716352"/>
+        <c:axId val="65524864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="531484776"/>
+        <c:axId val="63716352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,12 +1172,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567142024"/>
+        <c:crossAx val="65524864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567142024"/>
+        <c:axId val="65524864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1204,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531484776"/>
+        <c:crossAx val="63716352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1236,7 +1225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1246,7 +1235,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1308,8 +1296,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.217138563073807"/>
-                  <c:y val="-0.0222574446012823"/>
+                  <c:x val="0.21713856307380699"/>
+                  <c:y val="-2.2257444601282303E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1322,64 +1310,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,7 +1379,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.27</c:v>
@@ -1487,8 +1475,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.221287940667168"/>
-                  <c:y val="0.0469400180269043"/>
+                  <c:x val="0.22128794066716803"/>
+                  <c:y val="4.6940018026904305E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1501,64 +1489,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,68 +1564,68 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.655846</c:v>
+                  <c:v>2.6558459999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.545985</c:v>
+                  <c:v>3.5459849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.418027</c:v>
+                  <c:v>4.4180270000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.317078</c:v>
+                  <c:v>5.3170780000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.221733</c:v>
+                  <c:v>6.2217330000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.968147</c:v>
+                  <c:v>7.9681470000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.871365000000001</c:v>
+                  <c:v>8.8713650000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.752444</c:v>
+                  <c:v>9.7524440000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634</c:v>
+                  <c:v>10.633634000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507105</c:v>
+                  <c:v>11.507104999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304286</c:v>
+                  <c:v>13.304285999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537</c:v>
+                  <c:v>15.017537000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989446</c:v>
+                  <c:v>15.989445999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868754</c:v>
+                  <c:v>16.868753999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006</c:v>
+                  <c:v>17.734006000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="447770840"/>
-        <c:axId val="566538248"/>
+        <c:axId val="66617728"/>
+        <c:axId val="66619648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="447770840"/>
+        <c:axId val="66617728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,12 +1651,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566538248"/>
+        <c:crossAx val="66619648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566538248"/>
+        <c:axId val="66619648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1688,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447770840"/>
+        <c:crossAx val="66617728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1721,7 +1709,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1902,15 +1890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>708025</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2251,14 +2239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2713,14 +2701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2952,14 +2940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3319,7 +3307,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3332,14 +3319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3529,7 +3516,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3542,14 +3528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -3919,16 +3905,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>

--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24240" windowHeight="13740" tabRatio="620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
     <sheet name="RMS_TimeNrns" sheetId="2" r:id="rId2"/>
     <sheet name="BPGT_TimeIts" sheetId="3" r:id="rId3"/>
     <sheet name="BPGT_TimeNrns" sheetId="4" r:id="rId4"/>
-    <sheet name="Summary" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="RMS_TimeSmpls" sheetId="6" r:id="rId5"/>
+    <sheet name="BPGT_TimeSmpls" sheetId="7" r:id="rId6"/>
+    <sheet name="Summary" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>user</t>
   </si>
@@ -77,6 +78,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -122,6 +129,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -162,64 +170,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -231,43 +239,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.7076650000000004</c:v>
+                  <c:v>7.707665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.571129000000001</c:v>
+                  <c:v>15.571129</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.335438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.042038999999999</c:v>
+                  <c:v>31.042039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.872000999999997</c:v>
+                  <c:v>38.872001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.706636000000003</c:v>
+                  <c:v>46.706636</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54.716099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.357607000000002</c:v>
+                  <c:v>62.357607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.041304999999994</c:v>
+                  <c:v>70.041305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.776831000000001</c:v>
+                  <c:v>77.776831</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>85.837491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.409330999999995</c:v>
+                  <c:v>93.40933099999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.26611200000001</c:v>
+                  <c:v>101.266112</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>109.101752</c:v>
@@ -279,38 +287,38 @@
                   <c:v>124.77552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.55172999999999</c:v>
+                  <c:v>133.55173</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.27172300000001</c:v>
+                  <c:v>140.271723</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>148.001499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.33460199999999</c:v>
+                  <c:v>155.334602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49762304"/>
-        <c:axId val="49763840"/>
+        <c:axId val="566418344"/>
+        <c:axId val="531690680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49762304"/>
+        <c:axId val="566418344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49763840"/>
+        <c:crossAx val="531690680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49763840"/>
+        <c:axId val="531690680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,7 +326,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49762304"/>
+        <c:crossAx val="566418344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -330,7 +338,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -340,6 +348,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -381,34 +390,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,56 +429,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.999110999999999</c:v>
+                  <c:v>15.999111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.338056000000002</c:v>
+                  <c:v>41.338056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.575819999999993</c:v>
+                  <c:v>77.57581999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126.335757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.91172399999999</c:v>
+                  <c:v>185.911724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.75511800000001</c:v>
+                  <c:v>253.755118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335.21262999999999</c:v>
+                  <c:v>335.21263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.16458899999998</c:v>
+                  <c:v>425.164589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>528.30637200000001</c:v>
+                  <c:v>528.306372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.08490800000004</c:v>
+                  <c:v>641.084908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49846528"/>
-        <c:axId val="49856512"/>
+        <c:axId val="565860520"/>
+        <c:axId val="565604216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49846528"/>
+        <c:axId val="565860520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49856512"/>
+        <c:crossAx val="565604216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49856512"/>
+        <c:axId val="565604216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +486,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49846528"/>
+        <c:crossAx val="565860520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -489,7 +498,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -499,6 +508,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -539,64 +549,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,80 +624,80 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6558459999999999</c:v>
+                  <c:v>2.655846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5459849999999999</c:v>
+                  <c:v>3.545985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4180270000000004</c:v>
+                  <c:v>4.418027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3170780000000004</c:v>
+                  <c:v>5.317078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2217330000000004</c:v>
+                  <c:v>6.221733</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9681470000000001</c:v>
+                  <c:v>7.968147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8713650000000008</c:v>
+                  <c:v>8.871365000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7524440000000006</c:v>
+                  <c:v>9.752444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634000000001</c:v>
+                  <c:v>10.633634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507104999999999</c:v>
+                  <c:v>11.507105</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304285999999999</c:v>
+                  <c:v>13.304286</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537000000001</c:v>
+                  <c:v>15.017537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989445999999999</c:v>
+                  <c:v>15.989446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868753999999999</c:v>
+                  <c:v>16.868754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006000000001</c:v>
+                  <c:v>17.734006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49881856"/>
-        <c:axId val="49883392"/>
+        <c:axId val="562479224"/>
+        <c:axId val="562482200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49881856"/>
+        <c:axId val="562479224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49883392"/>
+        <c:crossAx val="562482200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49883392"/>
+        <c:axId val="562482200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +705,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49881856"/>
+        <c:crossAx val="562479224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -707,7 +717,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -717,6 +727,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -757,34 +768,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,13 +807,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8769150000000003</c:v>
+                  <c:v>4.876915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8163140000000002</c:v>
+                  <c:v>6.816314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8785489999999996</c:v>
+                  <c:v>8.878549</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -817,35 +828,35 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075000000001</c:v>
+                  <c:v>18.522075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014000000001</c:v>
+                  <c:v>20.437014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637000000001</c:v>
+                  <c:v>22.331637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49986560"/>
-        <c:axId val="49988352"/>
+        <c:axId val="531479368"/>
+        <c:axId val="447874344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49986560"/>
+        <c:axId val="531479368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49988352"/>
+        <c:crossAx val="447874344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49988352"/>
+        <c:axId val="447874344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +864,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49986560"/>
+        <c:crossAx val="531479368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -865,7 +876,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -875,6 +886,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -937,8 +949,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.36473780507727005"/>
-                  <c:y val="2.8370481149810504E-2"/>
+                  <c:x val="0.36473780507727"/>
+                  <c:y val="0.0283704811498105"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -951,34 +963,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1011,7 @@
                   <c:v>51.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>80.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>116.49</c:v>
@@ -1056,8 +1068,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.30182441925049813"/>
-                  <c:y val="7.1576064433593409E-3"/>
+                  <c:x val="0.301824419250498"/>
+                  <c:y val="0.00715760644335934"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1070,34 +1082,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,13 +1121,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8769150000000003</c:v>
+                  <c:v>4.876915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8163140000000002</c:v>
+                  <c:v>6.816314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8785489999999996</c:v>
+                  <c:v>8.878549</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -1130,23 +1142,23 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075000000001</c:v>
+                  <c:v>18.522075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014000000001</c:v>
+                  <c:v>20.437014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637000000001</c:v>
+                  <c:v>22.331637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63716352"/>
-        <c:axId val="65524864"/>
+        <c:axId val="564020824"/>
+        <c:axId val="564258968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63716352"/>
+        <c:axId val="564020824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,12 +1184,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65524864"/>
+        <c:crossAx val="564258968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65524864"/>
+        <c:axId val="564258968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1216,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63716352"/>
+        <c:crossAx val="564020824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1225,7 +1237,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1235,6 +1247,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1296,8 +1309,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21713856307380699"/>
-                  <c:y val="-2.2257444601282303E-2"/>
+                  <c:x val="0.217138563073807"/>
+                  <c:y val="-0.0222574446012823"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1310,64 +1323,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,7 +1392,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.27</c:v>
@@ -1475,8 +1488,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.22128794066716803"/>
-                  <c:y val="4.6940018026904305E-2"/>
+                  <c:x val="0.221287940667168"/>
+                  <c:y val="0.0469400180269043"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1489,64 +1502,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,68 +1577,68 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6558459999999999</c:v>
+                  <c:v>2.655846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5459849999999999</c:v>
+                  <c:v>3.545985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4180270000000004</c:v>
+                  <c:v>4.418027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3170780000000004</c:v>
+                  <c:v>5.317078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2217330000000004</c:v>
+                  <c:v>6.221733</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9681470000000001</c:v>
+                  <c:v>7.968147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8713650000000008</c:v>
+                  <c:v>8.871365000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7524440000000006</c:v>
+                  <c:v>9.752444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634000000001</c:v>
+                  <c:v>10.633634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507104999999999</c:v>
+                  <c:v>11.507105</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304285999999999</c:v>
+                  <c:v>13.304286</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537000000001</c:v>
+                  <c:v>15.017537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989445999999999</c:v>
+                  <c:v>15.989446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868753999999999</c:v>
+                  <c:v>16.868754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006000000001</c:v>
+                  <c:v>17.734006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="66617728"/>
-        <c:axId val="66619648"/>
+        <c:axId val="565786840"/>
+        <c:axId val="460571784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66617728"/>
+        <c:axId val="565786840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,12 +1664,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66619648"/>
+        <c:crossAx val="460571784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66619648"/>
+        <c:axId val="460571784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1701,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66617728"/>
+        <c:crossAx val="565786840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1709,7 +1722,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2239,14 +2252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2701,14 +2714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2940,14 +2953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3307,6 +3320,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3319,14 +3333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3516,6 +3530,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3528,14 +3543,468 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E2">
+        <v>4.7745519999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>9.44</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E3">
+        <v>9.455686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>14.16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>14.16</v>
+      </c>
+      <c r="E4">
+        <v>14.168604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>18.79</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>18.79</v>
+      </c>
+      <c r="E5">
+        <v>18.797978000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>23.49</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>23.49</v>
+      </c>
+      <c r="E6">
+        <v>23.497979000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>28.12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>28.12</v>
+      </c>
+      <c r="E7">
+        <v>28.134219000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="E8">
+        <v>32.853701999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>37.61</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>37.61</v>
+      </c>
+      <c r="E9">
+        <v>37.615476000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>42.17</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>42.17</v>
+      </c>
+      <c r="E10">
+        <v>42.178865000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>46.83</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>46.83</v>
+      </c>
+      <c r="E11">
+        <v>46.842782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>51.78</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>51.78</v>
+      </c>
+      <c r="E12">
+        <v>51.796847999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.85</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+      <c r="E2">
+        <v>0.86402900000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1.65</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.65</v>
+      </c>
+      <c r="E3">
+        <v>1.651233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>2.44</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2.44</v>
+      </c>
+      <c r="E4">
+        <v>2.4365839999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>3.22</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.22</v>
+      </c>
+      <c r="E5">
+        <v>3.2334269999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E6">
+        <v>4.0197240000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E7">
+        <v>4.8078950000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>5.6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <v>5.6026350000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>6.41</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6.41</v>
+      </c>
+      <c r="E9">
+        <v>6.4148800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>7.19</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>7.19</v>
+      </c>
+      <c r="E10">
+        <v>7.1998759999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>8.0029830000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>8.74</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>8.74</v>
+      </c>
+      <c r="E12">
+        <v>8.7477280000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -3893,6 +4362,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3902,23 +4372,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24240" windowHeight="13740" tabRatio="620" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="24240" windowHeight="13740" tabRatio="620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="BPGT_TimeSmpls" sheetId="7" r:id="rId6"/>
     <sheet name="Summary" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>user</t>
   </si>
@@ -73,17 +73,20 @@
     <t>Back-propagation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sample size</t>
+  </si>
+  <si>
+    <t>Back-propagation</t>
+  </si>
+  <si>
+    <t>RMS Minimization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -129,7 +132,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -170,64 +172,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,43 +241,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.707665</c:v>
+                  <c:v>7.7076650000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.571129</c:v>
+                  <c:v>15.571129000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.335438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.042039</c:v>
+                  <c:v>31.042038999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.872001</c:v>
+                  <c:v>38.872000999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.706636</c:v>
+                  <c:v>46.706636000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54.716099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.357607</c:v>
+                  <c:v>62.357607000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.041305</c:v>
+                  <c:v>70.041304999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.776831</c:v>
+                  <c:v>77.776831000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>85.837491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.40933099999999</c:v>
+                  <c:v>93.409330999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.266112</c:v>
+                  <c:v>101.26611200000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>109.101752</c:v>
@@ -287,38 +289,38 @@
                   <c:v>124.77552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.55173</c:v>
+                  <c:v>133.55172999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.271723</c:v>
+                  <c:v>140.27172300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>148.001499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.334602</c:v>
+                  <c:v>155.33460199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="566418344"/>
-        <c:axId val="531690680"/>
+        <c:axId val="51232768"/>
+        <c:axId val="51234304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="566418344"/>
+        <c:axId val="51232768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531690680"/>
+        <c:crossAx val="51234304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531690680"/>
+        <c:axId val="51234304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +328,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566418344"/>
+        <c:crossAx val="51232768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -338,7 +340,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -348,7 +350,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -390,34 +391,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,56 +430,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.999111</c:v>
+                  <c:v>15.999110999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.338056</c:v>
+                  <c:v>41.338056000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.57581999999999</c:v>
+                  <c:v>77.575819999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126.335757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.911724</c:v>
+                  <c:v>185.91172399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.755118</c:v>
+                  <c:v>253.75511800000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335.21263</c:v>
+                  <c:v>335.21262999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.164589</c:v>
+                  <c:v>425.16458899999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>528.306372</c:v>
+                  <c:v>528.30637200000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.084908</c:v>
+                  <c:v>641.08490800000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="565860520"/>
-        <c:axId val="565604216"/>
+        <c:axId val="71514752"/>
+        <c:axId val="71541120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565860520"/>
+        <c:axId val="71514752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565604216"/>
+        <c:crossAx val="71541120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565604216"/>
+        <c:axId val="71541120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +487,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565860520"/>
+        <c:crossAx val="71514752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -498,7 +499,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -508,7 +509,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -549,64 +549,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,80 +624,80 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.655846</c:v>
+                  <c:v>2.6558459999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.545985</c:v>
+                  <c:v>3.5459849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.418027</c:v>
+                  <c:v>4.4180270000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.317078</c:v>
+                  <c:v>5.3170780000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.221733</c:v>
+                  <c:v>6.2217330000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.968147</c:v>
+                  <c:v>7.9681470000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.871365000000001</c:v>
+                  <c:v>8.8713650000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.752444</c:v>
+                  <c:v>9.7524440000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634</c:v>
+                  <c:v>10.633634000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507105</c:v>
+                  <c:v>11.507104999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304286</c:v>
+                  <c:v>13.304285999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537</c:v>
+                  <c:v>15.017537000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989446</c:v>
+                  <c:v>15.989445999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868754</c:v>
+                  <c:v>16.868753999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006</c:v>
+                  <c:v>17.734006000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="562479224"/>
-        <c:axId val="562482200"/>
+        <c:axId val="84256640"/>
+        <c:axId val="84351232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562479224"/>
+        <c:axId val="84256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562482200"/>
+        <c:crossAx val="84351232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562482200"/>
+        <c:axId val="84351232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +705,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562479224"/>
+        <c:crossAx val="84256640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,7 +717,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -727,7 +727,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -768,34 +767,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,13 +806,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.876915</c:v>
+                  <c:v>4.8769150000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.816314</c:v>
+                  <c:v>6.8163140000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.878549</c:v>
+                  <c:v>8.8785489999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -828,35 +827,35 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075</c:v>
+                  <c:v>18.522075000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014</c:v>
+                  <c:v>20.437014000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637</c:v>
+                  <c:v>22.331637000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="531479368"/>
-        <c:axId val="447874344"/>
+        <c:axId val="49829760"/>
+        <c:axId val="49831296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="531479368"/>
+        <c:axId val="49829760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447874344"/>
+        <c:crossAx val="49831296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447874344"/>
+        <c:axId val="49831296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +863,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531479368"/>
+        <c:crossAx val="49829760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -876,7 +875,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -886,7 +885,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -949,8 +947,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.36473780507727"/>
-                  <c:y val="0.0283704811498105"/>
+                  <c:x val="0.36473780507727005"/>
+                  <c:y val="2.8370481149810504E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -963,34 +961,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1009,7 @@
                   <c:v>51.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.6</c:v>
+                  <c:v>80.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>116.49</c:v>
@@ -1068,8 +1066,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.301824419250498"/>
-                  <c:y val="0.00715760644335934"/>
+                  <c:x val="0.30182441925049813"/>
+                  <c:y val="7.1576064433593409E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1082,34 +1080,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,13 +1119,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.876915</c:v>
+                  <c:v>4.8769150000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.816314</c:v>
+                  <c:v>6.8163140000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.878549</c:v>
+                  <c:v>8.8785489999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -1142,23 +1140,23 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075</c:v>
+                  <c:v>18.522075000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014</c:v>
+                  <c:v>20.437014000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637</c:v>
+                  <c:v>22.331637000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="564020824"/>
-        <c:axId val="564258968"/>
+        <c:axId val="52979584"/>
+        <c:axId val="63254528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564020824"/>
+        <c:axId val="52979584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,12 +1182,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564258968"/>
+        <c:crossAx val="63254528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564258968"/>
+        <c:axId val="63254528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1214,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564020824"/>
+        <c:crossAx val="52979584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1237,7 +1235,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1247,7 +1245,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1281,7 +1278,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$B$35</c:f>
+              <c:f>Summary!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,8 +1306,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.217138563073807"/>
-                  <c:y val="-0.0222574446012823"/>
+                  <c:x val="0.21713856307380699"/>
+                  <c:y val="-2.2257444601282303E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1318,81 +1315,81 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$A$36:$A$55</c:f>
+              <c:f>Summary!$A$14:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$B$36:$B$55</c:f>
+              <c:f>Summary!$B$14:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.27</c:v>
@@ -1460,7 +1457,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$C$35</c:f>
+              <c:f>Summary!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1488,8 +1485,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.221287940667168"/>
-                  <c:y val="0.0469400180269043"/>
+                  <c:x val="0.22128794066716803"/>
+                  <c:y val="4.6940018026904305E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1497,76 +1494,76 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$A$36:$A$55</c:f>
+              <c:f>Summary!$A$14:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$36:$C$55</c:f>
+              <c:f>Summary!$C$14:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1577,68 +1574,68 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.655846</c:v>
+                  <c:v>2.6558459999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.545985</c:v>
+                  <c:v>3.5459849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.418027</c:v>
+                  <c:v>4.4180270000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.317078</c:v>
+                  <c:v>5.3170780000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.221733</c:v>
+                  <c:v>6.2217330000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.968147</c:v>
+                  <c:v>7.9681470000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.871365000000001</c:v>
+                  <c:v>8.8713650000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.752444</c:v>
+                  <c:v>9.7524440000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634</c:v>
+                  <c:v>10.633634000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507105</c:v>
+                  <c:v>11.507104999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304286</c:v>
+                  <c:v>13.304285999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537</c:v>
+                  <c:v>15.017537000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989446</c:v>
+                  <c:v>15.989445999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868754</c:v>
+                  <c:v>16.868753999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006</c:v>
+                  <c:v>17.734006000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="565786840"/>
-        <c:axId val="460571784"/>
+        <c:axId val="63302656"/>
+        <c:axId val="66589824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565786840"/>
+        <c:axId val="63302656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,12 +1661,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460571784"/>
+        <c:crossAx val="66589824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460571784"/>
+        <c:axId val="66589824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1698,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565786840"/>
+        <c:crossAx val="63302656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1722,7 +1719,379 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sample size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMS Minimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17058530183727033"/>
+                  <c:y val="-3.3731472501219183E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$37:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$B$37:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.7745519999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.455686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.168604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.797978000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.497979000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.134219000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.853701999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.615476000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.178865000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.842782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.796847999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Back-propagation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C0504D"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16713543307086615"/>
+                  <c:y val="4.0836168965309401E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$37:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$37:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.86402900000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.651233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4365839999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2334269999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0197240000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8078950000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6026350000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4148800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1998759999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0029830000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7477280000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="66627072"/>
+        <c:axId val="66625536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66627072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66625536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66625536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66627072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1925,6 +2294,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2252,14 +2651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2714,14 +3113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2953,14 +3352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3320,7 +3719,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3333,14 +3731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3530,7 +3928,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3543,14 +3940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3757,10 +4154,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3770,14 +4166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3984,10 +4380,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3997,16 +4392,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4130,239 +4526,370 @@
         <v>22.331637000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C14">
+        <v>0.89715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>10.27</v>
+      </c>
+      <c r="C15">
+        <v>1.770243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>300</v>
+      </c>
+      <c r="B16">
+        <v>15.4</v>
+      </c>
+      <c r="C16">
+        <v>2.6558459999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>400</v>
+      </c>
+      <c r="B17">
+        <v>20.59</v>
+      </c>
+      <c r="C17">
+        <v>3.5459849999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>500</v>
+      </c>
+      <c r="B18">
+        <v>25.72</v>
+      </c>
+      <c r="C18">
+        <v>4.4180270000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>600</v>
+      </c>
+      <c r="B19">
+        <v>30.9</v>
+      </c>
+      <c r="C19">
+        <v>5.3170780000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>700</v>
+      </c>
+      <c r="B20">
+        <v>36.03</v>
+      </c>
+      <c r="C20">
+        <v>6.2217330000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>800</v>
+      </c>
+      <c r="B21">
+        <v>41.12</v>
+      </c>
+      <c r="C21">
+        <v>7.110214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>900</v>
+      </c>
+      <c r="B22">
+        <v>46.37</v>
+      </c>
+      <c r="C22">
+        <v>7.9681470000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23">
+        <v>51.5</v>
+      </c>
+      <c r="C23">
+        <v>8.8713650000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1100</v>
+      </c>
+      <c r="B24">
+        <v>56.61</v>
+      </c>
+      <c r="C24">
+        <v>9.7524440000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1200</v>
+      </c>
+      <c r="B25">
+        <v>61.66</v>
+      </c>
+      <c r="C25">
+        <v>10.633634000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1300</v>
+      </c>
+      <c r="B26">
+        <v>66.84</v>
+      </c>
+      <c r="C26">
+        <v>11.507104999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1400</v>
+      </c>
+      <c r="B27">
+        <v>72.12</v>
+      </c>
+      <c r="C27">
+        <v>12.397551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1500</v>
+      </c>
+      <c r="B28">
+        <v>77.27</v>
+      </c>
+      <c r="C28">
+        <v>13.304285999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1600</v>
+      </c>
+      <c r="B29">
+        <v>82.75</v>
+      </c>
+      <c r="C29">
+        <v>14.187443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1700</v>
+      </c>
+      <c r="B30">
+        <v>87.64</v>
+      </c>
+      <c r="C30">
+        <v>15.017537000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1800</v>
+      </c>
+      <c r="B31">
+        <v>92.93</v>
+      </c>
+      <c r="C31">
+        <v>15.989445999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1900</v>
+      </c>
+      <c r="B32">
+        <v>98.11</v>
+      </c>
+      <c r="C32">
+        <v>16.868753999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>102.99</v>
+      </c>
+      <c r="C33">
+        <v>17.734006000000001</v>
+      </c>
+    </row>
     <row r="36" spans="1:3">
-      <c r="A36">
-        <v>100</v>
-      </c>
-      <c r="B36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C36">
-        <v>0.89715</v>
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>10.27</v>
+        <v>4.7745519999999999</v>
       </c>
       <c r="C37">
-        <v>1.770243</v>
+        <v>0.86402900000000005</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>15.4</v>
+        <v>9.455686</v>
       </c>
       <c r="C38">
-        <v>2.6558459999999999</v>
+        <v>1.651233</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>400</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>20.59</v>
+        <v>14.168604</v>
       </c>
       <c r="C39">
-        <v>3.5459849999999999</v>
+        <v>2.4365839999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>25.72</v>
+        <v>18.797978000000001</v>
       </c>
       <c r="C40">
-        <v>4.4180270000000004</v>
+        <v>3.2334269999999998</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>30.9</v>
+        <v>23.497979000000001</v>
       </c>
       <c r="C41">
-        <v>5.3170780000000004</v>
+        <v>4.0197240000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>700</v>
+        <v>66</v>
       </c>
       <c r="B42">
-        <v>36.03</v>
+        <v>28.134219000000002</v>
       </c>
       <c r="C42">
-        <v>6.2217330000000004</v>
+        <v>4.8078950000000003</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>800</v>
+        <v>77</v>
       </c>
       <c r="B43">
-        <v>41.12</v>
+        <v>32.853701999999998</v>
       </c>
       <c r="C43">
-        <v>7.110214</v>
+        <v>5.6026350000000003</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>900</v>
+        <v>88</v>
       </c>
       <c r="B44">
-        <v>46.37</v>
+        <v>37.615476000000001</v>
       </c>
       <c r="C44">
-        <v>7.9681470000000001</v>
+        <v>6.4148800000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="B45">
-        <v>51.5</v>
+        <v>42.178865000000002</v>
       </c>
       <c r="C45">
-        <v>8.8713650000000008</v>
+        <v>7.1998759999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1100</v>
+        <v>110</v>
       </c>
       <c r="B46">
-        <v>56.61</v>
+        <v>46.842782</v>
       </c>
       <c r="C46">
-        <v>9.7524440000000006</v>
+        <v>8.0029830000000004</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1200</v>
+        <v>121</v>
       </c>
       <c r="B47">
-        <v>61.66</v>
+        <v>51.796847999999997</v>
       </c>
       <c r="C47">
-        <v>10.633634000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>1300</v>
-      </c>
-      <c r="B48">
-        <v>66.84</v>
-      </c>
-      <c r="C48">
-        <v>11.507104999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>1400</v>
-      </c>
-      <c r="B49">
-        <v>72.12</v>
-      </c>
-      <c r="C49">
-        <v>12.397551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>1500</v>
-      </c>
-      <c r="B50">
-        <v>77.27</v>
-      </c>
-      <c r="C50">
-        <v>13.304285999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>1600</v>
-      </c>
-      <c r="B51">
-        <v>82.75</v>
-      </c>
-      <c r="C51">
-        <v>14.187443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>1700</v>
-      </c>
-      <c r="B52">
-        <v>87.64</v>
-      </c>
-      <c r="C52">
-        <v>15.017537000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>1800</v>
-      </c>
-      <c r="B53">
-        <v>92.93</v>
-      </c>
-      <c r="C53">
-        <v>15.989445999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>1900</v>
-      </c>
-      <c r="B54">
-        <v>98.11</v>
-      </c>
-      <c r="C54">
-        <v>16.868753999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>2000</v>
-      </c>
-      <c r="B55">
-        <v>102.99</v>
-      </c>
-      <c r="C55">
-        <v>17.734006000000001</v>
+        <v>8.7477280000000004</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/trunk/docs/Times.xlsx
+++ b/trunk/docs/Times.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="24240" windowHeight="13740" tabRatio="620" activeTab="6"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24240" windowHeight="13740" tabRatio="620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_TimeIts" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="BPGT_TimeSmpls" sheetId="7" r:id="rId6"/>
     <sheet name="Summary" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -87,6 +87,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -132,6 +138,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -172,64 +179,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,43 +248,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.7076650000000004</c:v>
+                  <c:v>7.707665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.571129000000001</c:v>
+                  <c:v>15.571129</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.335438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.042038999999999</c:v>
+                  <c:v>31.042039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.872000999999997</c:v>
+                  <c:v>38.872001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.706636000000003</c:v>
+                  <c:v>46.706636</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54.716099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.357607000000002</c:v>
+                  <c:v>62.357607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.041304999999994</c:v>
+                  <c:v>70.041305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.776831000000001</c:v>
+                  <c:v>77.776831</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>85.837491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.409330999999995</c:v>
+                  <c:v>93.40933099999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.26611200000001</c:v>
+                  <c:v>101.266112</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>109.101752</c:v>
@@ -289,38 +296,38 @@
                   <c:v>124.77552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.55172999999999</c:v>
+                  <c:v>133.55173</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.27172300000001</c:v>
+                  <c:v>140.271723</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>148.001499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.33460199999999</c:v>
+                  <c:v>155.334602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="51232768"/>
-        <c:axId val="51234304"/>
+        <c:axId val="572439288"/>
+        <c:axId val="572424472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51232768"/>
+        <c:axId val="572439288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51234304"/>
+        <c:crossAx val="572424472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51234304"/>
+        <c:axId val="572424472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +335,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51232768"/>
+        <c:crossAx val="572439288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -340,7 +347,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -350,6 +357,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -391,34 +399,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,56 +438,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.999110999999999</c:v>
+                  <c:v>15.999111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.338056000000002</c:v>
+                  <c:v>41.338056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.575819999999993</c:v>
+                  <c:v>77.57581999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126.335757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.91172399999999</c:v>
+                  <c:v>185.911724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.75511800000001</c:v>
+                  <c:v>253.755118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335.21262999999999</c:v>
+                  <c:v>335.21263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.16458899999998</c:v>
+                  <c:v>425.164589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>528.30637200000001</c:v>
+                  <c:v>528.306372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.08490800000004</c:v>
+                  <c:v>641.084908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71514752"/>
-        <c:axId val="71541120"/>
+        <c:axId val="436816600"/>
+        <c:axId val="436805352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71514752"/>
+        <c:axId val="436816600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71541120"/>
+        <c:crossAx val="436805352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71541120"/>
+        <c:axId val="436805352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +495,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71514752"/>
+        <c:crossAx val="436816600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,7 +507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -509,6 +517,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -549,64 +558,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,80 +633,80 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6558459999999999</c:v>
+                  <c:v>2.655846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5459849999999999</c:v>
+                  <c:v>3.545985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4180270000000004</c:v>
+                  <c:v>4.418027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3170780000000004</c:v>
+                  <c:v>5.317078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2217330000000004</c:v>
+                  <c:v>6.221733</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9681470000000001</c:v>
+                  <c:v>7.968147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8713650000000008</c:v>
+                  <c:v>8.871365000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7524440000000006</c:v>
+                  <c:v>9.752444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634000000001</c:v>
+                  <c:v>10.633634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507104999999999</c:v>
+                  <c:v>11.507105</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304285999999999</c:v>
+                  <c:v>13.304286</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537000000001</c:v>
+                  <c:v>15.017537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989445999999999</c:v>
+                  <c:v>15.989446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868753999999999</c:v>
+                  <c:v>16.868754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006000000001</c:v>
+                  <c:v>17.734006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84256640"/>
-        <c:axId val="84351232"/>
+        <c:axId val="436756376"/>
+        <c:axId val="436751672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84256640"/>
+        <c:axId val="436756376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84351232"/>
+        <c:crossAx val="436751672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84351232"/>
+        <c:axId val="436751672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +714,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84256640"/>
+        <c:crossAx val="436756376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,7 +726,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -727,6 +736,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title/>
     <c:plotArea>
@@ -767,34 +777,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,13 +816,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8769150000000003</c:v>
+                  <c:v>4.876915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8163140000000002</c:v>
+                  <c:v>6.816314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8785489999999996</c:v>
+                  <c:v>8.878549</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -827,35 +837,35 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075000000001</c:v>
+                  <c:v>18.522075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014000000001</c:v>
+                  <c:v>20.437014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637000000001</c:v>
+                  <c:v>22.331637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49829760"/>
-        <c:axId val="49831296"/>
+        <c:axId val="436899800"/>
+        <c:axId val="436902696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49829760"/>
+        <c:axId val="436899800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49831296"/>
+        <c:crossAx val="436902696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49831296"/>
+        <c:axId val="436902696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +873,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49829760"/>
+        <c:crossAx val="436899800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -875,7 +885,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -885,6 +895,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -947,8 +958,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.36473780507727005"/>
-                  <c:y val="2.8370481149810504E-2"/>
+                  <c:x val="0.36473780507727"/>
+                  <c:y val="0.0283704811498105"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -961,34 +972,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +1020,7 @@
                   <c:v>51.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>80.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>116.49</c:v>
@@ -1066,8 +1077,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.30182441925049813"/>
-                  <c:y val="7.1576064433593409E-3"/>
+                  <c:x val="0.301824419250498"/>
+                  <c:y val="0.00715760644335934"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1080,34 +1091,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,13 +1130,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8769150000000003</c:v>
+                  <c:v>4.876915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8163140000000002</c:v>
+                  <c:v>6.816314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8785489999999996</c:v>
+                  <c:v>8.878549</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.895184</c:v>
@@ -1140,23 +1151,23 @@
                   <c:v>16.635728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.522075000000001</c:v>
+                  <c:v>18.522075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.437014000000001</c:v>
+                  <c:v>20.437014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.331637000000001</c:v>
+                  <c:v>22.331637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="52979584"/>
-        <c:axId val="63254528"/>
+        <c:axId val="436976344"/>
+        <c:axId val="436981992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52979584"/>
+        <c:axId val="436976344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,12 +1193,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63254528"/>
+        <c:crossAx val="436981992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63254528"/>
+        <c:axId val="436981992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1225,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52979584"/>
+        <c:crossAx val="436976344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1235,7 +1246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1245,6 +1256,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1306,8 +1318,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21713856307380699"/>
-                  <c:y val="-2.2257444601282303E-2"/>
+                  <c:x val="0.217138563073807"/>
+                  <c:y val="-0.0222574446012823"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1320,64 +1332,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,7 +1401,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.27</c:v>
@@ -1485,8 +1497,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.22128794066716803"/>
-                  <c:y val="4.6940018026904305E-2"/>
+                  <c:x val="0.221287940667168"/>
+                  <c:y val="0.0469400180269043"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1499,64 +1511,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,68 +1586,68 @@
                   <c:v>1.770243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6558459999999999</c:v>
+                  <c:v>2.655846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5459849999999999</c:v>
+                  <c:v>3.545985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4180270000000004</c:v>
+                  <c:v>4.418027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3170780000000004</c:v>
+                  <c:v>5.317078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2217330000000004</c:v>
+                  <c:v>6.221733</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.110214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9681470000000001</c:v>
+                  <c:v>7.968147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8713650000000008</c:v>
+                  <c:v>8.871365000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7524440000000006</c:v>
+                  <c:v>9.752444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.633634000000001</c:v>
+                  <c:v>10.633634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507104999999999</c:v>
+                  <c:v>11.507105</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.397551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.304285999999999</c:v>
+                  <c:v>13.304286</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14.187443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.017537000000001</c:v>
+                  <c:v>15.017537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.989445999999999</c:v>
+                  <c:v>15.989446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.868753999999999</c:v>
+                  <c:v>16.868754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.734006000000001</c:v>
+                  <c:v>17.734006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63302656"/>
-        <c:axId val="66589824"/>
+        <c:axId val="437015752"/>
+        <c:axId val="437034456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63302656"/>
+        <c:axId val="437015752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,12 +1673,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66589824"/>
+        <c:crossAx val="437034456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66589824"/>
+        <c:axId val="437034456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1710,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63302656"/>
+        <c:crossAx val="437015752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1719,7 +1731,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1729,6 +1741,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1790,8 +1803,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17058530183727033"/>
-                  <c:y val="-3.3731472501219183E-2"/>
+                  <c:x val="0.17058530183727"/>
+                  <c:y val="-0.0337314725012192"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1804,37 +1817,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,7 +1859,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.7745519999999999</c:v>
+                  <c:v>4.774552</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.455686</c:v>
@@ -1855,28 +1868,28 @@
                   <c:v>14.168604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.797978000000001</c:v>
+                  <c:v>18.797978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.497979000000001</c:v>
+                  <c:v>23.497979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.134219000000002</c:v>
+                  <c:v>28.134219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.853701999999998</c:v>
+                  <c:v>32.853702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.615476000000001</c:v>
+                  <c:v>37.615476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.178865000000002</c:v>
+                  <c:v>42.178865</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>46.842782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.796847999999997</c:v>
+                  <c:v>51.796848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,8 +1928,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16713543307086615"/>
-                  <c:y val="4.0836168965309401E-2"/>
+                  <c:x val="0.167135433070866"/>
+                  <c:y val="0.0408361689653094"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1929,37 +1942,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,48 +1984,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.86402900000000005</c:v>
+                  <c:v>0.864029</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.651233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4365839999999999</c:v>
+                  <c:v>2.436584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2334269999999998</c:v>
+                  <c:v>3.233427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0197240000000001</c:v>
+                  <c:v>4.019724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8078950000000003</c:v>
+                  <c:v>4.807895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6026350000000003</c:v>
+                  <c:v>5.602635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4148800000000001</c:v>
+                  <c:v>6.41488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1998759999999997</c:v>
+                  <c:v>7.199876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0029830000000004</c:v>
+                  <c:v>8.002983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7477280000000004</c:v>
+                  <c:v>8.747728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="66627072"/>
-        <c:axId val="66625536"/>
+        <c:axId val="437086936"/>
+        <c:axId val="437093912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66627072"/>
+        <c:axId val="437086936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,12 +2050,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66625536"/>
+        <c:crossAx val="437093912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66625536"/>
+        <c:axId val="437093912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2082,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66627072"/>
+        <c:crossAx val="437086936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2651,14 +2663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3113,14 +3125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -3340,6 +3352,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3352,14 +3365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3719,6 +3732,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3731,14 +3745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3940,14 +3954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -4154,9 +4168,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -4166,14 +4181,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -4380,9 +4395,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -4392,17 +4408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4890,6 +4906,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
